--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mfng</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0621644097148</v>
+        <v>14.416292</v>
       </c>
       <c r="H2">
-        <v>14.0621644097148</v>
+        <v>43.248876</v>
       </c>
       <c r="I2">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="J2">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>37.77123006041928</v>
+        <v>43.15001387489467</v>
       </c>
       <c r="R2">
-        <v>37.77123006041928</v>
+        <v>388.350124874052</v>
       </c>
       <c r="S2">
-        <v>0.02758346254902496</v>
+        <v>0.02789171034762377</v>
       </c>
       <c r="T2">
-        <v>0.02758346254902496</v>
+        <v>0.02789171034762378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0621644097148</v>
+        <v>14.416292</v>
       </c>
       <c r="H3">
-        <v>14.0621644097148</v>
+        <v>43.248876</v>
       </c>
       <c r="I3">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="J3">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>449.7663220937861</v>
+        <v>461.253039608504</v>
       </c>
       <c r="R3">
-        <v>449.7663220937861</v>
+        <v>4151.277356476536</v>
       </c>
       <c r="S3">
-        <v>0.328454023907659</v>
+        <v>0.2981490623623312</v>
       </c>
       <c r="T3">
-        <v>0.328454023907659</v>
+        <v>0.2981490623623312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0621644097148</v>
+        <v>14.416292</v>
       </c>
       <c r="H4">
-        <v>14.0621644097148</v>
+        <v>43.248876</v>
       </c>
       <c r="I4">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="J4">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>428.3393804344465</v>
+        <v>494.3244939995706</v>
       </c>
       <c r="R4">
-        <v>428.3393804344465</v>
+        <v>4448.920445996136</v>
       </c>
       <c r="S4">
-        <v>0.3128064201135777</v>
+        <v>0.319526098979855</v>
       </c>
       <c r="T4">
-        <v>0.3128064201135777</v>
+        <v>0.319526098979855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0621644097148</v>
+        <v>14.416292</v>
       </c>
       <c r="H5">
-        <v>14.0621644097148</v>
+        <v>43.248876</v>
       </c>
       <c r="I5">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="J5">
-        <v>0.8313686127057474</v>
+        <v>0.8004770782290026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>222.5521199535724</v>
+        <v>239.6546313660693</v>
       </c>
       <c r="R5">
-        <v>222.5521199535724</v>
+        <v>2156.891682294623</v>
       </c>
       <c r="S5">
-        <v>0.1625247061354858</v>
+        <v>0.1549102065391925</v>
       </c>
       <c r="T5">
-        <v>0.1625247061354858</v>
+        <v>0.1549102065391925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8523115457203</v>
+        <v>3.178646666666667</v>
       </c>
       <c r="H6">
-        <v>2.8523115457203</v>
+        <v>9.53594</v>
       </c>
       <c r="I6">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="J6">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>7.661360830268987</v>
+        <v>9.514141900708891</v>
       </c>
       <c r="R6">
-        <v>7.661360830268987</v>
+        <v>85.62727710638001</v>
       </c>
       <c r="S6">
-        <v>0.005594916003483353</v>
+        <v>0.006149840203299606</v>
       </c>
       <c r="T6">
-        <v>0.005594916003483353</v>
+        <v>0.006149840203299606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.8523115457203</v>
+        <v>3.178646666666667</v>
       </c>
       <c r="H7">
-        <v>2.8523115457203</v>
+        <v>9.53594</v>
       </c>
       <c r="I7">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="J7">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>91.22874943049253</v>
+        <v>101.7016329054267</v>
       </c>
       <c r="R7">
-        <v>91.22874943049253</v>
+        <v>915.3146961488401</v>
       </c>
       <c r="S7">
-        <v>0.06662226221611271</v>
+        <v>0.06573885457146793</v>
       </c>
       <c r="T7">
-        <v>0.06662226221611271</v>
+        <v>0.06573885457146791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.8523115457203</v>
+        <v>3.178646666666667</v>
       </c>
       <c r="H8">
-        <v>2.8523115457203</v>
+        <v>9.53594</v>
       </c>
       <c r="I8">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="J8">
-        <v>0.1686313872942526</v>
+        <v>0.1764971045575167</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>86.88259678259804</v>
+        <v>108.9935543136489</v>
       </c>
       <c r="R8">
-        <v>86.88259678259804</v>
+        <v>980.94198882284</v>
       </c>
       <c r="S8">
-        <v>0.06344836667170554</v>
+        <v>0.07045227506735571</v>
       </c>
       <c r="T8">
-        <v>0.06344836667170554</v>
+        <v>0.07045227506735571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.178646666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.53594</v>
+      </c>
+      <c r="I9">
+        <v>0.1764971045575167</v>
+      </c>
+      <c r="J9">
+        <v>0.1764971045575167</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.62387466666667</v>
+      </c>
+      <c r="N9">
+        <v>49.871624</v>
+      </c>
+      <c r="O9">
+        <v>0.1935223515480544</v>
+      </c>
+      <c r="P9">
+        <v>0.1935223515480545</v>
+      </c>
+      <c r="Q9">
+        <v>52.84142379628445</v>
+      </c>
+      <c r="R9">
+        <v>475.57281416656</v>
+      </c>
+      <c r="S9">
+        <v>0.03415613471539348</v>
+      </c>
+      <c r="T9">
+        <v>0.03415613471539348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4146863333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.244059</v>
+      </c>
+      <c r="I10">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="J10">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.993142333333334</v>
+      </c>
+      <c r="N10">
+        <v>8.979427000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.03484385887642424</v>
+      </c>
+      <c r="P10">
+        <v>0.03484385887642424</v>
+      </c>
+      <c r="Q10">
+        <v>1.241215219354778</v>
+      </c>
+      <c r="R10">
+        <v>11.170936974193</v>
+      </c>
+      <c r="S10">
+        <v>0.0008023083255008635</v>
+      </c>
+      <c r="T10">
+        <v>0.0008023083255008636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.8523115457203</v>
-      </c>
-      <c r="H9">
-        <v>2.8523115457203</v>
-      </c>
-      <c r="I9">
-        <v>0.1686313872942526</v>
-      </c>
-      <c r="J9">
-        <v>0.1686313872942526</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>15.8263062121378</v>
-      </c>
-      <c r="N9">
-        <v>15.8263062121378</v>
-      </c>
-      <c r="O9">
-        <v>0.1954905485384369</v>
-      </c>
-      <c r="P9">
-        <v>0.1954905485384369</v>
-      </c>
-      <c r="Q9">
-        <v>45.14155593498555</v>
-      </c>
-      <c r="R9">
-        <v>45.14155593498555</v>
-      </c>
-      <c r="S9">
-        <v>0.03296584240295104</v>
-      </c>
-      <c r="T9">
-        <v>0.03296584240295104</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4146863333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.244059</v>
+      </c>
+      <c r="I11">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="J11">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.995262</v>
+      </c>
+      <c r="N11">
+        <v>95.985786</v>
+      </c>
+      <c r="O11">
+        <v>0.3724642097459734</v>
+      </c>
+      <c r="P11">
+        <v>0.3724642097459735</v>
+      </c>
+      <c r="Q11">
+        <v>13.26799788281933</v>
+      </c>
+      <c r="R11">
+        <v>119.411980945374</v>
+      </c>
+      <c r="S11">
+        <v>0.008576292812174343</v>
+      </c>
+      <c r="T11">
+        <v>0.008576292812174344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4146863333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.244059</v>
+      </c>
+      <c r="I12">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="J12">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.28929533333334</v>
+      </c>
+      <c r="N12">
+        <v>102.867886</v>
+      </c>
+      <c r="O12">
+        <v>0.3991695798295478</v>
+      </c>
+      <c r="P12">
+        <v>0.3991695798295478</v>
+      </c>
+      <c r="Q12">
+        <v>14.21930215436378</v>
+      </c>
+      <c r="R12">
+        <v>127.973719389274</v>
+      </c>
+      <c r="S12">
+        <v>0.009191205782337083</v>
+      </c>
+      <c r="T12">
+        <v>0.009191205782337083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4146863333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.244059</v>
+      </c>
+      <c r="I13">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="J13">
+        <v>0.02302581721348076</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.62387466666667</v>
+      </c>
+      <c r="N13">
+        <v>49.871624</v>
+      </c>
+      <c r="O13">
+        <v>0.1935223515480544</v>
+      </c>
+      <c r="P13">
+        <v>0.1935223515480545</v>
+      </c>
+      <c r="Q13">
+        <v>6.893693631312888</v>
+      </c>
+      <c r="R13">
+        <v>62.043242681816</v>
+      </c>
+      <c r="S13">
+        <v>0.004456010293468466</v>
+      </c>
+      <c r="T13">
+        <v>0.004456010293468467</v>
       </c>
     </row>
   </sheetData>
